--- a/Consumer creditworthiness train data.xlsx
+++ b/Consumer creditworthiness train data.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datascience\Skill Slash\Live Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Desktop\Skillslash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C907A1F3-B09C-47A7-AC74-FE392011C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9984"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$522</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -108,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,32 +415,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>294853</v>
       </c>
@@ -526,7 +521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>162883</v>
       </c>
@@ -567,7 +562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>620668</v>
       </c>
@@ -608,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>295747</v>
       </c>
@@ -649,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>133390</v>
       </c>
@@ -690,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>922093</v>
       </c>
@@ -731,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>804795</v>
       </c>
@@ -772,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>538051</v>
       </c>
@@ -813,7 +808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>617715</v>
       </c>
@@ -854,7 +849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>696993</v>
       </c>
@@ -895,7 +890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>661683</v>
       </c>
@@ -936,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>312206</v>
       </c>
@@ -974,7 +969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>357855</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>810400</v>
       </c>
@@ -1056,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>557421</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>675531</v>
       </c>
@@ -1138,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>325054</v>
       </c>
@@ -1176,7 +1171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>858757</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>307804</v>
       </c>
@@ -1258,7 +1253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>342238</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>911473</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>494912</v>
       </c>
@@ -1375,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>146973</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>416319</v>
       </c>
@@ -1454,7 +1449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>776219</v>
       </c>
@@ -1489,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>319041</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>226332</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>773064</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>855460</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>638217</v>
       </c>
@@ -1691,7 +1686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>844094</v>
       </c>
@@ -1726,7 +1721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>262773</v>
       </c>
@@ -1767,7 +1762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>149516</v>
       </c>
@@ -1808,7 +1803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>271492</v>
       </c>
@@ -1849,7 +1844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>198315</v>
       </c>
@@ -1890,7 +1885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>311706</v>
       </c>
@@ -1931,7 +1926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>456712</v>
       </c>
@@ -1969,7 +1964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>415152</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>221618</v>
       </c>
@@ -2051,7 +2046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>954893</v>
       </c>
@@ -2092,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>580381</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>119287</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>727995</v>
       </c>
@@ -2212,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>978353</v>
       </c>
@@ -2253,7 +2248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>342635</v>
       </c>
@@ -2291,7 +2286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>546000</v>
       </c>
@@ -2329,7 +2324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>753278</v>
       </c>
@@ -2370,7 +2365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>801028</v>
       </c>
@@ -2411,7 +2406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>575003</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>915052</v>
       </c>
@@ -2493,7 +2488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>471125</v>
       </c>
@@ -2534,7 +2529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>208025</v>
       </c>
@@ -2575,7 +2570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>761989</v>
       </c>
@@ -2616,7 +2611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>541898</v>
       </c>
@@ -2657,7 +2652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>392029</v>
       </c>
@@ -2698,7 +2693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>695363</v>
       </c>
@@ -2739,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>127087</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>819942</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>314492</v>
       </c>
@@ -2862,7 +2857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>281836</v>
       </c>
@@ -2903,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>937544</v>
       </c>
@@ -2944,7 +2939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>827645</v>
       </c>
@@ -2985,7 +2980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>407154</v>
       </c>
@@ -3026,7 +3021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>641557</v>
       </c>
@@ -3067,7 +3062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>125227</v>
       </c>
@@ -3108,7 +3103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>821307</v>
       </c>
@@ -3149,7 +3144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>581895</v>
       </c>
@@ -3190,7 +3185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>762700</v>
       </c>
@@ -3231,7 +3226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>602684</v>
       </c>
@@ -3272,7 +3267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>500771</v>
       </c>
@@ -3313,7 +3308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>373338</v>
       </c>
@@ -3354,7 +3349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>516159</v>
       </c>
@@ -3395,7 +3390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>650697</v>
       </c>
@@ -3436,7 +3431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>804903</v>
       </c>
@@ -3474,7 +3469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>276243</v>
       </c>
@@ -3515,7 +3510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>706434</v>
       </c>
@@ -3556,7 +3551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>841980</v>
       </c>
@@ -3597,7 +3592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>581747</v>
       </c>
@@ -3638,7 +3633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>220459</v>
       </c>
@@ -3679,7 +3674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>272664</v>
       </c>
@@ -3717,7 +3712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>941799</v>
       </c>
@@ -3758,7 +3753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>596387</v>
       </c>
@@ -3799,7 +3794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>884565</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>619233</v>
       </c>
@@ -3878,7 +3873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>527601</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>790506</v>
       </c>
@@ -3960,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>543412</v>
       </c>
@@ -3998,7 +3993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>558480</v>
       </c>
@@ -4039,7 +4034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>790588</v>
       </c>
@@ -4080,7 +4075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>413191</v>
       </c>
@@ -4121,7 +4116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>894609</v>
       </c>
@@ -4162,7 +4157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>918652</v>
       </c>
@@ -4203,7 +4198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>941002</v>
       </c>
@@ -4244,7 +4239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>348978</v>
       </c>
@@ -4285,7 +4280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>492616</v>
       </c>
@@ -4326,7 +4321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>782550</v>
       </c>
@@ -4361,7 +4356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>946950</v>
       </c>
@@ -4402,7 +4397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>678935</v>
       </c>
@@ -4443,7 +4438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>791382</v>
       </c>
@@ -4484,7 +4479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>296373</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>990456</v>
       </c>
@@ -4566,7 +4561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>238760</v>
       </c>
@@ -4607,7 +4602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>343597</v>
       </c>
@@ -4645,7 +4640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>549111</v>
       </c>
@@ -4686,7 +4681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>114100</v>
       </c>
@@ -4721,7 +4716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>841656</v>
       </c>
@@ -4762,7 +4757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>163505</v>
       </c>
@@ -4803,7 +4798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>799960</v>
       </c>
@@ -4841,7 +4836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>319740</v>
       </c>
@@ -4882,7 +4877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>727444</v>
       </c>
@@ -4923,7 +4918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>269985</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>806403</v>
       </c>
@@ -5002,7 +4997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>775250</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>102013</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>104139</v>
       </c>
@@ -5119,7 +5114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>271263</v>
       </c>
@@ -5160,7 +5155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>621427</v>
       </c>
@@ -5201,7 +5196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>798461</v>
       </c>
@@ -5239,7 +5234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>266744</v>
       </c>
@@ -5280,7 +5275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>423065</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>187026</v>
       </c>
@@ -5359,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>501104</v>
       </c>
@@ -5400,7 +5395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>190953</v>
       </c>
@@ -5441,7 +5436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>193151</v>
       </c>
@@ -5482,7 +5477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>303498</v>
       </c>
@@ -5523,7 +5518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>419393</v>
       </c>
@@ -5561,7 +5556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>874101</v>
       </c>
@@ -5599,7 +5594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>151352</v>
       </c>
@@ -5640,7 +5635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>527085</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>683089</v>
       </c>
@@ -5719,7 +5714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>702085</v>
       </c>
@@ -5757,7 +5752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>419034</v>
       </c>
@@ -5798,7 +5793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>702152</v>
       </c>
@@ -5839,7 +5834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>117576</v>
       </c>
@@ -5880,7 +5875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136907</v>
       </c>
@@ -5921,7 +5916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>410417</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>910418</v>
       </c>
@@ -6003,7 +5998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>808519</v>
       </c>
@@ -6044,7 +6039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>962946</v>
       </c>
@@ -6085,7 +6080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>844145</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>645074</v>
       </c>
@@ -6167,7 +6162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>635015</v>
       </c>
@@ -6208,7 +6203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>616227</v>
       </c>
@@ -6249,7 +6244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>531223</v>
       </c>
@@ -6290,7 +6285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>852047</v>
       </c>
@@ -6331,7 +6326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>559331</v>
       </c>
@@ -6372,7 +6367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>698189</v>
       </c>
@@ -6413,7 +6408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>287495</v>
       </c>
@@ -6454,7 +6449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>446808</v>
       </c>
@@ -6495,7 +6490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>121094</v>
       </c>
@@ -6536,7 +6531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>499982</v>
       </c>
@@ -6577,7 +6572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>597694</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>236878</v>
       </c>
@@ -6659,7 +6654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>368231</v>
       </c>
@@ -6700,7 +6695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>219016</v>
       </c>
@@ -6741,7 +6736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>246914</v>
       </c>
@@ -6782,7 +6777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>885142</v>
       </c>
@@ -6820,7 +6815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>846444</v>
       </c>
@@ -6861,7 +6856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>140148</v>
       </c>
@@ -6899,7 +6894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>334116</v>
       </c>
@@ -6940,7 +6935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>828124</v>
       </c>
@@ -6981,7 +6976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>362254</v>
       </c>
@@ -7022,7 +7017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>657998</v>
       </c>
@@ -7063,7 +7058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>475310</v>
       </c>
@@ -7104,7 +7099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>647615</v>
       </c>
@@ -7145,7 +7140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>349592</v>
       </c>
@@ -7183,7 +7178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>738104</v>
       </c>
@@ -7224,7 +7219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>264069</v>
       </c>
@@ -7265,7 +7260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>905520</v>
       </c>
@@ -7306,7 +7301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>643209</v>
       </c>
@@ -7347,7 +7342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>336054</v>
       </c>
@@ -7385,7 +7380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>646048</v>
       </c>
@@ -7423,7 +7418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>371630</v>
       </c>
@@ -7464,7 +7459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>271393</v>
       </c>
@@ -7505,7 +7500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>400834</v>
       </c>
@@ -7546,7 +7541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>620146</v>
       </c>
@@ -7587,7 +7582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>998081</v>
       </c>
@@ -7628,7 +7623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>808078</v>
       </c>
@@ -7669,7 +7664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>415986</v>
       </c>
@@ -7710,7 +7705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>944477</v>
       </c>
@@ -7751,7 +7746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>878135</v>
       </c>
@@ -7792,7 +7787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>647566</v>
       </c>
@@ -7830,7 +7825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>744022</v>
       </c>
@@ -7871,7 +7866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>936171</v>
       </c>
@@ -7912,7 +7907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>709086</v>
       </c>
@@ -7953,7 +7948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>881568</v>
       </c>
@@ -7994,7 +7989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>846691</v>
       </c>
@@ -8035,7 +8030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>245158</v>
       </c>
@@ -8073,7 +8068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>578889</v>
       </c>
@@ -8111,7 +8106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>755116</v>
       </c>
@@ -8152,7 +8147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>735993</v>
       </c>
@@ -8193,7 +8188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>815795</v>
       </c>
@@ -8234,7 +8229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>869383</v>
       </c>
@@ -8275,7 +8270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>138878</v>
       </c>
@@ -8316,7 +8311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>129474</v>
       </c>
@@ -8357,7 +8352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>650428</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>944617</v>
       </c>
@@ -8439,7 +8434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>166462</v>
       </c>
@@ -8477,7 +8472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>983039</v>
       </c>
@@ -8515,7 +8510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>233242</v>
       </c>
@@ -8556,7 +8551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>467975</v>
       </c>
@@ -8597,7 +8592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>837378</v>
       </c>
@@ -8638,7 +8633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>592169</v>
       </c>
@@ -8679,7 +8674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>503327</v>
       </c>
@@ -8720,7 +8715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>741438</v>
       </c>
@@ -8761,7 +8756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>613320</v>
       </c>
@@ -8802,7 +8797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>912655</v>
       </c>
@@ -8843,7 +8838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>894216</v>
       </c>
@@ -8884,7 +8879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>395368</v>
       </c>
@@ -8925,7 +8920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>338141</v>
       </c>
@@ -8966,7 +8961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>378180</v>
       </c>
@@ -9007,7 +9002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>592737</v>
       </c>
@@ -9048,7 +9043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>323592</v>
       </c>
@@ -9089,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>983264</v>
       </c>
@@ -9130,7 +9125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>857685</v>
       </c>
@@ -9171,7 +9166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>687564</v>
       </c>
@@ -9212,7 +9207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>976402</v>
       </c>
@@ -9253,7 +9248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>267778</v>
       </c>
@@ -9294,7 +9289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>893057</v>
       </c>
@@ -9332,7 +9327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>343902</v>
       </c>
@@ -9370,7 +9365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>895376</v>
       </c>
@@ -9411,7 +9406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>125712</v>
       </c>
@@ -9452,7 +9447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>279550</v>
       </c>
@@ -9493,7 +9488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>322083</v>
       </c>
@@ -9531,7 +9526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>474420</v>
       </c>
@@ -9572,7 +9567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>384728</v>
       </c>
@@ -9613,7 +9608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>921694</v>
       </c>
@@ -9651,7 +9646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>101559</v>
       </c>
@@ -9692,7 +9687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>133107</v>
       </c>
@@ -9727,7 +9722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>403391</v>
       </c>
@@ -9768,7 +9763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>951271</v>
       </c>
@@ -9809,7 +9804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>941496</v>
       </c>
@@ -9847,7 +9842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>343581</v>
       </c>
@@ -9885,7 +9880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>167960</v>
       </c>
@@ -9926,7 +9921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>404712</v>
       </c>
@@ -9967,7 +9962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>782510</v>
       </c>
@@ -10008,7 +10003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>445018</v>
       </c>
@@ -10043,7 +10038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>479565</v>
       </c>
@@ -10081,7 +10076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>973972</v>
       </c>
@@ -10122,7 +10117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>659339</v>
       </c>
@@ -10163,7 +10158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>273204</v>
       </c>
@@ -10204,7 +10199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>137763</v>
       </c>
@@ -10245,7 +10240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>111783</v>
       </c>
@@ -10286,7 +10281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>948181</v>
       </c>
@@ -10327,7 +10322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>548693</v>
       </c>
@@ -10368,7 +10363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>949264</v>
       </c>
@@ -10409,7 +10404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>962174</v>
       </c>
@@ -10450,7 +10445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>287120</v>
       </c>
@@ -10491,7 +10486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>704316</v>
       </c>
@@ -10532,7 +10527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>615780</v>
       </c>
@@ -10573,7 +10568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>561269</v>
       </c>
@@ -10614,7 +10609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>550832</v>
       </c>
@@ -10655,7 +10650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>662905</v>
       </c>
@@ -10696,7 +10691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>313230</v>
       </c>
@@ -10737,7 +10732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>298673</v>
       </c>
@@ -10778,7 +10773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>127867</v>
       </c>
@@ -10819,7 +10814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>822003</v>
       </c>
@@ -10860,7 +10855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>352816</v>
       </c>
@@ -10901,7 +10896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>464615</v>
       </c>
@@ -10942,7 +10937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>324269</v>
       </c>
@@ -10980,7 +10975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>941121</v>
       </c>
@@ -11018,7 +11013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>250606</v>
       </c>
@@ -11059,7 +11054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>434654</v>
       </c>
@@ -11100,7 +11095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>543248</v>
       </c>
@@ -11141,7 +11136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>290050</v>
       </c>
@@ -11182,7 +11177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>224641</v>
       </c>
@@ -11223,7 +11218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>904895</v>
       </c>
@@ -11264,7 +11259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>225565</v>
       </c>
@@ -11305,7 +11300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>905674</v>
       </c>
@@ -11343,7 +11338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>825042</v>
       </c>
@@ -11384,7 +11379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>273451</v>
       </c>
@@ -11425,7 +11420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>347200</v>
       </c>
@@ -11466,7 +11461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>429072</v>
       </c>
@@ -11507,7 +11502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>629068</v>
       </c>
@@ -11548,7 +11543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>283057</v>
       </c>
@@ -11589,7 +11584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>207323</v>
       </c>
@@ -11630,7 +11625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>613080</v>
       </c>
@@ -11671,7 +11666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>267111</v>
       </c>
@@ -11712,7 +11707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>628224</v>
       </c>
@@ -11753,7 +11748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>420994</v>
       </c>
@@ -11791,7 +11786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>534151</v>
       </c>
@@ -11832,7 +11827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>385065</v>
       </c>
@@ -11873,7 +11868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>933313</v>
       </c>
@@ -11914,7 +11909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>757631</v>
       </c>
@@ -11955,7 +11950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>553405</v>
       </c>
@@ -11996,7 +11991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>368180</v>
       </c>
@@ -12037,7 +12032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>117149</v>
       </c>
@@ -12078,7 +12073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>445233</v>
       </c>
@@ -12119,7 +12114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>140780</v>
       </c>
@@ -12160,7 +12155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>868682</v>
       </c>
@@ -12201,7 +12196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>358315</v>
       </c>
@@ -12242,7 +12237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>532674</v>
       </c>
@@ -12283,7 +12278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>308789</v>
       </c>
@@ -12324,7 +12319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>199610</v>
       </c>
@@ -12362,7 +12357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>577722</v>
       </c>
@@ -12403,7 +12398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>974482</v>
       </c>
@@ -12441,7 +12436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>624130</v>
       </c>
@@ -12482,7 +12477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>433893</v>
       </c>
@@ -12523,7 +12518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>788598</v>
       </c>
@@ -12564,7 +12559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>236833</v>
       </c>
@@ -12605,7 +12600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>223830</v>
       </c>
@@ -12646,7 +12641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>503523</v>
       </c>
@@ -12684,7 +12679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>828224</v>
       </c>
@@ -12725,7 +12720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>317290</v>
       </c>
@@ -12766,7 +12761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>796252</v>
       </c>
@@ -12807,7 +12802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>751986</v>
       </c>
@@ -12848,7 +12843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>459157</v>
       </c>
@@ -12889,7 +12884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>695801</v>
       </c>
@@ -12930,7 +12925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>239986</v>
       </c>
@@ -12971,7 +12966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>459198</v>
       </c>
@@ -13009,7 +13004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>334571</v>
       </c>
@@ -13050,7 +13045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>606209</v>
       </c>
@@ -13091,7 +13086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>472640</v>
       </c>
@@ -13132,7 +13127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>913329</v>
       </c>
@@ -13170,7 +13165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>805098</v>
       </c>
@@ -13208,7 +13203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>204347</v>
       </c>
@@ -13249,7 +13244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>673302</v>
       </c>
@@ -13290,7 +13285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>274582</v>
       </c>
@@ -13328,7 +13323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>259125</v>
       </c>
@@ -13366,7 +13361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>304692</v>
       </c>
@@ -13407,7 +13402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>998791</v>
       </c>
@@ -13448,7 +13443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>692678</v>
       </c>
@@ -13489,7 +13484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>995414</v>
       </c>
@@ -13530,7 +13525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>485781</v>
       </c>
@@ -13568,7 +13563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>655873</v>
       </c>
@@ -13609,7 +13604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>861195</v>
       </c>
@@ -13650,7 +13645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>966331</v>
       </c>
@@ -13691,7 +13686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>817889</v>
       </c>
@@ -13732,7 +13727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>554873</v>
       </c>
@@ -13773,7 +13768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>500834</v>
       </c>
@@ -13814,7 +13809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>582328</v>
       </c>
@@ -13855,7 +13850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>391993</v>
       </c>
@@ -13896,7 +13891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>590336</v>
       </c>
@@ -13934,7 +13929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>935427</v>
       </c>
@@ -13972,7 +13967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>548233</v>
       </c>
@@ -14010,7 +14005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>584013</v>
       </c>
@@ -14045,7 +14040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>106536</v>
       </c>
@@ -14083,7 +14078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>110142</v>
       </c>
@@ -14124,7 +14119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>913134</v>
       </c>
@@ -14165,7 +14160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>538712</v>
       </c>
@@ -14206,7 +14201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>966380</v>
       </c>
@@ -14247,7 +14242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>780490</v>
       </c>
@@ -14288,7 +14283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>143020</v>
       </c>
@@ -14329,7 +14324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>705282</v>
       </c>
@@ -14370,7 +14365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>569533</v>
       </c>
@@ -14408,7 +14403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>113016</v>
       </c>
@@ -14449,7 +14444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>578710</v>
       </c>
@@ -14487,7 +14482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>870283</v>
       </c>
@@ -14528,7 +14523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>110230</v>
       </c>
@@ -14566,7 +14561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>112377</v>
       </c>
@@ -14607,7 +14602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>239311</v>
       </c>
@@ -14648,7 +14643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>370548</v>
       </c>
@@ -14689,7 +14684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>701311</v>
       </c>
@@ -14730,7 +14725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>446938</v>
       </c>
@@ -14771,7 +14766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>802464</v>
       </c>
@@ -14812,7 +14807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>131441</v>
       </c>
@@ -14850,7 +14845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>827443</v>
       </c>
@@ -14891,7 +14886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>846262</v>
       </c>
@@ -14932,7 +14927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>536112</v>
       </c>
@@ -14973,7 +14968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>631695</v>
       </c>
@@ -15014,7 +15009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>452157</v>
       </c>
@@ -15055,7 +15050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>269057</v>
       </c>
@@ -15096,7 +15091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>728769</v>
       </c>
@@ -15137,7 +15132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>640419</v>
       </c>
@@ -15175,7 +15170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>591933</v>
       </c>
@@ -15216,7 +15211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>903258</v>
       </c>
@@ -15257,7 +15252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>932083</v>
       </c>
@@ -15298,7 +15293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>818519</v>
       </c>
@@ -15336,7 +15331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>998269</v>
       </c>
@@ -15377,7 +15372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>792762</v>
       </c>
@@ -15418,7 +15413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>310148</v>
       </c>
@@ -15459,7 +15454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>840596</v>
       </c>
@@ -15500,7 +15495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>135318</v>
       </c>
@@ -15541,7 +15536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>376802</v>
       </c>
@@ -15582,7 +15577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>844765</v>
       </c>
@@ -15620,7 +15615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>150231</v>
       </c>
@@ -15661,7 +15656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>926700</v>
       </c>
@@ -15702,7 +15697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>920694</v>
       </c>
@@ -15740,7 +15735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>876775</v>
       </c>
@@ -15781,7 +15776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>973081</v>
       </c>
@@ -15822,7 +15817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>827774</v>
       </c>
@@ -15860,7 +15855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>708522</v>
       </c>
@@ -15901,7 +15896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>294172</v>
       </c>
@@ -15942,7 +15937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>877879</v>
       </c>
@@ -15983,7 +15978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>698837</v>
       </c>
@@ -16024,7 +16019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>782382</v>
       </c>
@@ -16062,7 +16057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>258092</v>
       </c>
@@ -16103,7 +16098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>156880</v>
       </c>
@@ -16144,7 +16139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>280075</v>
       </c>
@@ -16185,7 +16180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>208393</v>
       </c>
@@ -16226,7 +16221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>809454</v>
       </c>
@@ -16267,7 +16262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>926664</v>
       </c>
@@ -16308,7 +16303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>488847</v>
       </c>
@@ -16346,7 +16341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>185724</v>
       </c>
@@ -16387,7 +16382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>222863</v>
       </c>
@@ -16428,7 +16423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>288631</v>
       </c>
@@ -16466,7 +16461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>501391</v>
       </c>
@@ -16507,7 +16502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>868313</v>
       </c>
@@ -16548,7 +16543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>769745</v>
       </c>
@@ -16589,7 +16584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>883693</v>
       </c>
@@ -16630,7 +16625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>758161</v>
       </c>
@@ -16671,7 +16666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>348922</v>
       </c>
@@ -16712,7 +16707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>716546</v>
       </c>
@@ -16753,7 +16748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>707074</v>
       </c>
@@ -16794,7 +16789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>974329</v>
       </c>
@@ -16835,7 +16830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>233515</v>
       </c>
@@ -16876,7 +16871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>490184</v>
       </c>
@@ -16917,7 +16912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>354399</v>
       </c>
@@ -16958,7 +16953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>940889</v>
       </c>
@@ -16999,7 +16994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>869489</v>
       </c>
@@ -17040,7 +17035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>915304</v>
       </c>
@@ -17081,7 +17076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>762654</v>
       </c>
@@ -17116,7 +17111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>899266</v>
       </c>
@@ -17157,7 +17152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>163356</v>
       </c>
@@ -17198,7 +17193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>416750</v>
       </c>
@@ -17239,7 +17234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>340588</v>
       </c>
@@ -17280,7 +17275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>487495</v>
       </c>
@@ -17321,7 +17316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>109205</v>
       </c>
@@ -17362,7 +17357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>337603</v>
       </c>
@@ -17403,7 +17398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>528285</v>
       </c>
@@ -17444,7 +17439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>987920</v>
       </c>
@@ -17485,7 +17480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>452910</v>
       </c>
@@ -17523,7 +17518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>247854</v>
       </c>
@@ -17564,7 +17559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>410220</v>
       </c>
@@ -17602,7 +17597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>983464</v>
       </c>
@@ -17643,7 +17638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>160205</v>
       </c>
@@ -17684,7 +17679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>966210</v>
       </c>
@@ -17725,7 +17720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>846087</v>
       </c>
@@ -17766,7 +17761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>502629</v>
       </c>
@@ -17807,7 +17802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>307534</v>
       </c>
@@ -17848,7 +17843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>498482</v>
       </c>
@@ -17889,7 +17884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>253465</v>
       </c>
@@ -17930,7 +17925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>664696</v>
       </c>
@@ -17968,7 +17963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>198157</v>
       </c>
@@ -18009,7 +18004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>763826</v>
       </c>
@@ -18050,7 +18045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>579487</v>
       </c>
@@ -18085,7 +18080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>651750</v>
       </c>
@@ -18126,7 +18121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>645307</v>
       </c>
@@ -18167,7 +18162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>705493</v>
       </c>
@@ -18208,7 +18203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>574296</v>
       </c>
@@ -18249,7 +18244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>278033</v>
       </c>
@@ -18290,7 +18285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>345909</v>
       </c>
@@ -18331,7 +18326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>474259</v>
       </c>
@@ -18372,7 +18367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>297840</v>
       </c>
@@ -18413,7 +18408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>898363</v>
       </c>
@@ -18451,7 +18446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>483331</v>
       </c>
@@ -18492,7 +18487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>937832</v>
       </c>
@@ -18533,7 +18528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>520835</v>
       </c>
@@ -18571,7 +18566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>756128</v>
       </c>
@@ -18612,7 +18607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>417861</v>
       </c>
@@ -18650,7 +18645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>574851</v>
       </c>
@@ -18691,7 +18686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>747381</v>
       </c>
@@ -18729,7 +18724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>146758</v>
       </c>
@@ -18770,7 +18765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>276200</v>
       </c>
@@ -18811,7 +18806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>450555</v>
       </c>
@@ -18852,7 +18847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>382444</v>
       </c>
@@ -18893,7 +18888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>240229</v>
       </c>
@@ -18934,7 +18929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>599454</v>
       </c>
@@ -18975,7 +18970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>702580</v>
       </c>
@@ -19016,7 +19011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>646187</v>
       </c>
@@ -19057,7 +19052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>527705</v>
       </c>
@@ -19092,7 +19087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>229937</v>
       </c>
@@ -19133,7 +19128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>479729</v>
       </c>
@@ -19174,7 +19169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>359081</v>
       </c>
@@ -19212,7 +19207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>460926</v>
       </c>
@@ -19253,7 +19248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>479092</v>
       </c>
@@ -19294,7 +19289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>860441</v>
       </c>
@@ -19335,7 +19330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>539042</v>
       </c>
@@ -19373,7 +19368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>725301</v>
       </c>
@@ -19411,7 +19406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>903947</v>
       </c>
@@ -19452,7 +19447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>288283</v>
       </c>
@@ -19493,7 +19488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>144899</v>
       </c>
@@ -19534,7 +19529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>367026</v>
       </c>
@@ -19575,7 +19570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>226001</v>
       </c>
@@ -19613,7 +19608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>241996</v>
       </c>
@@ -19654,7 +19649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>541488</v>
       </c>
@@ -19695,7 +19690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>452164</v>
       </c>
@@ -19736,7 +19731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>900615</v>
       </c>
@@ -19774,7 +19769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>318102</v>
       </c>
@@ -19815,7 +19810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>783776</v>
       </c>
@@ -19856,7 +19851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>525634</v>
       </c>
@@ -19897,7 +19892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>716567</v>
       </c>
@@ -19938,7 +19933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>695217</v>
       </c>
@@ -19979,7 +19974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>865310</v>
       </c>
@@ -20020,7 +20015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>933178</v>
       </c>
@@ -20061,7 +20056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>566631</v>
       </c>
@@ -20102,7 +20097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>226707</v>
       </c>
@@ -20143,7 +20138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>254974</v>
       </c>
@@ -20184,7 +20179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>492450</v>
       </c>
@@ -20225,7 +20220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>418941</v>
       </c>
@@ -20266,7 +20261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>602254</v>
       </c>
@@ -20304,7 +20299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>418709</v>
       </c>
@@ -20342,7 +20337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>183421</v>
       </c>
@@ -20383,7 +20378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>199414</v>
       </c>
@@ -20424,7 +20419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>235597</v>
       </c>
@@ -20465,7 +20460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>465866</v>
       </c>
@@ -20506,7 +20501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>405936</v>
       </c>
@@ -20547,7 +20542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>703801</v>
       </c>
@@ -20585,7 +20580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>409093</v>
       </c>
@@ -20626,7 +20621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>139130</v>
       </c>
@@ -20667,7 +20662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>961214</v>
       </c>
@@ -20708,7 +20703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>422312</v>
       </c>
@@ -20749,7 +20744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>608884</v>
       </c>
@@ -20790,7 +20785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>879435</v>
       </c>
@@ -20828,7 +20823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>847209</v>
       </c>
@@ -20869,7 +20864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>433064</v>
       </c>
@@ -20910,7 +20905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>707044</v>
       </c>
@@ -20948,7 +20943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>578331</v>
       </c>
@@ -20986,7 +20981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>601073</v>
       </c>
@@ -21027,7 +21022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>675989</v>
       </c>
@@ -21068,7 +21063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>713393</v>
       </c>
@@ -21109,7 +21104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>470614</v>
       </c>
@@ -21150,7 +21145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>254504</v>
       </c>
@@ -21191,7 +21186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>406888</v>
       </c>
@@ -21232,7 +21227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>279044</v>
       </c>
@@ -21273,7 +21268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>821863</v>
       </c>
@@ -21314,7 +21309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>947032</v>
       </c>
@@ -21355,7 +21350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>756833</v>
       </c>
@@ -21393,7 +21388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>395763</v>
       </c>
@@ -21434,7 +21429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>158946</v>
       </c>
@@ -21475,7 +21470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>552637</v>
       </c>
@@ -21517,13 +21512,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M522" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Rural"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>